--- a/projects/test_building/input/Scenario_CoolingTechnology_Cost_PaybackTime.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_Cost_PaybackTime.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A555F-77EF-A34C-B1CA-EB64C9BEA1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1040" windowWidth="23860" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1040" windowWidth="23860" windowHeight="13260"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,53 +228,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AR2" totalsRowShown="0">
-  <autoFilter ref="A1:AR2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AR2" totalsRowShown="0">
+  <autoFilter ref="A1:AR2"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_cooling_technology"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2021"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2022"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2023"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2024"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2025"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2026"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2027"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2028"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2029"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2030"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2031"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2032"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2033"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2034"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2035"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2036"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2037"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2038"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2039"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2040"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2041"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2042"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2043"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2044"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2045"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2046"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2047"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2048"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2049"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="5" name="id_cooling_technology"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="9" name="2012"/>
+    <tableColumn id="10" name="2013"/>
+    <tableColumn id="11" name="2014"/>
+    <tableColumn id="12" name="2015"/>
+    <tableColumn id="13" name="2016"/>
+    <tableColumn id="14" name="2017"/>
+    <tableColumn id="15" name="2018"/>
+    <tableColumn id="16" name="2019"/>
+    <tableColumn id="17" name="2020"/>
+    <tableColumn id="3" name="2021"/>
+    <tableColumn id="4" name="2022"/>
+    <tableColumn id="18" name="2023"/>
+    <tableColumn id="19" name="2024"/>
+    <tableColumn id="20" name="2025"/>
+    <tableColumn id="21" name="2026"/>
+    <tableColumn id="22" name="2027"/>
+    <tableColumn id="23" name="2028"/>
+    <tableColumn id="24" name="2029"/>
+    <tableColumn id="25" name="2030"/>
+    <tableColumn id="26" name="2031"/>
+    <tableColumn id="27" name="2032"/>
+    <tableColumn id="28" name="2033"/>
+    <tableColumn id="29" name="2034"/>
+    <tableColumn id="30" name="2035"/>
+    <tableColumn id="31" name="2036"/>
+    <tableColumn id="32" name="2037"/>
+    <tableColumn id="33" name="2038"/>
+    <tableColumn id="34" name="2039"/>
+    <tableColumn id="35" name="2040"/>
+    <tableColumn id="36" name="2041"/>
+    <tableColumn id="37" name="2042"/>
+    <tableColumn id="38" name="2043"/>
+    <tableColumn id="39" name="2044"/>
+    <tableColumn id="40" name="2045"/>
+    <tableColumn id="41" name="2046"/>
+    <tableColumn id="42" name="2047"/>
+    <tableColumn id="43" name="2048"/>
+    <tableColumn id="44" name="2049"/>
+    <tableColumn id="45" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,19 +564,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
